--- a/accoj/deal_business/questions_2.xlsx
+++ b/accoj/deal_business/questions_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC36D55-9B86-4C31-96F0-D17ED912040F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D568EF5-B497-4C10-901D-332EBD018805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2670" windowWidth="21600" windowHeight="11835" xr2:uid="{A0E50CFB-CE50-46AE-8E39-2EB666DEE00D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A0E50CFB-CE50-46AE-8E39-2EB666DEE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>将公司拥有的{"-交易性金融资产"}售出{100%}，公允价值{120000}元，获得{20000}元的投资收益。</t>
-  </si>
-  <si>
     <t>资产:+v3；资产:-(v3-v4)；收入:+v4</t>
   </si>
   <si>
@@ -491,6 +488,10 @@
   </si>
   <si>
     <t>结转本月损益。</t>
+  </si>
+  <si>
+    <t>将公司拥有的{"-交易性金融资产"}售出{100%}，公允价值{120000}元，获得{20000}元的投资{收益/亏损}。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -942,11 +943,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A80AA3-7F6F-41AD-B39E-E957B8638C3A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1244,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -1253,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1265,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -1277,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1286,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -1307,19 +1317,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1328,10 +1338,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1340,7 +1350,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -1349,19 +1359,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1370,19 +1380,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1391,19 +1401,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1412,19 +1422,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -1433,19 +1443,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1454,19 +1464,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -1475,19 +1485,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -1496,19 +1506,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -1517,19 +1527,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -1538,19 +1548,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -1559,19 +1569,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -1580,19 +1590,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1601,19 +1611,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -1622,19 +1632,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -1643,10 +1653,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -1655,7 +1665,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -1664,19 +1674,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -1685,19 +1695,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -1706,19 +1716,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -1727,19 +1737,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -1748,10 +1758,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
@@ -1763,5 +1773,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/accoj/deal_business/questions_2.xlsx
+++ b/accoj/deal_business/questions_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D568EF5-B497-4C10-901D-332EBD018805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2C3B77-B6AC-490A-A677-CE4F7DE0947A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A0E50CFB-CE50-46AE-8E39-2EB666DEE00D}"/>
   </bookViews>
@@ -209,12 +209,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>资产:+v3；所有者权益:+v3</t>
-  </si>
-  <si>
-    <t>原材料:+v3；实收资本:+v3</t>
-  </si>
-  <si>
     <t>7.有两个选项的用{select1/select2}</t>
   </si>
   <si>
@@ -491,6 +485,14 @@
   </si>
   <si>
     <t>将公司拥有的{"-交易性金融资产"}售出{100%}，公允价值{120000}元，获得{20000}元的投资{收益/亏损}。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:+v4；所有者权益:+v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料:+v4；实收资本:+v4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A80AA3-7F6F-41AD-B39E-E957B8638C3A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,22 +1149,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,19 +1172,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1191,19 +1193,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -1212,19 +1214,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -1233,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -1254,19 +1256,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1275,19 +1277,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1296,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -1317,19 +1319,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1338,19 +1340,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -1359,19 +1361,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1380,19 +1382,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1401,19 +1403,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1422,19 +1424,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -1443,40 +1445,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -1485,19 +1487,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -1506,40 +1508,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -1548,19 +1550,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -1569,19 +1571,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -1590,19 +1592,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1611,19 +1613,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -1632,19 +1634,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -1653,10 +1655,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -1665,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -1674,19 +1676,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -1695,19 +1697,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -1716,19 +1718,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -1737,19 +1739,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -1758,10 +1760,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>

--- a/accoj/deal_business/questions_2.xlsx
+++ b/accoj/deal_business/questions_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2C3B77-B6AC-490A-A677-CE4F7DE0947A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B0843-BFB0-405D-BFF8-201235E644EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A0E50CFB-CE50-46AE-8E39-2EB666DEE00D}"/>
   </bookViews>
@@ -414,18 +414,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>生产成本:+v2；管理费用:+v3；销售费用:+v4；累计折旧:-v1</t>
-  </si>
-  <si>
     <t>计提本月摊销{150000}元，其中生产车间{50000}元，行政管理部门{50000}元，销售部门{50000}元。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资产:+v2；费用:+(v3+v4)；资产:-v1</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产成本:+v2；管理费用:+v3；销售费用:+v4；累计摊销:-v1</t>
   </si>
   <si>
     <t>以银行存款支付本月房租{30000}元，其中生产车间{20000}元，行政管理部门{5000}元，销售部门{5000}元。</t>
@@ -493,6 +487,14 @@
   </si>
   <si>
     <t>原材料:+v4；实收资本:+v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产成本:+v2；管理费用:+v3；销售费用:+v4；累计折旧:+v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产成本:+v2；管理费用:+v3；销售费用:+v4；累计摊销:+v1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -945,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A80AA3-7F6F-41AD-B39E-E957B8638C3A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1135,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -1256,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1583,7 +1585,7 @@
         <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -1592,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -1601,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1613,7 +1615,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>52</v>
@@ -1634,7 +1636,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>52</v>
@@ -1643,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -1655,7 +1657,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>52</v>
@@ -1667,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -1676,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>52</v>
@@ -1685,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -1697,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>52</v>
@@ -1706,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -1718,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>52</v>
@@ -1730,7 +1732,7 @@
         <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" s="6"/>
     </row>
@@ -1739,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>52</v>
@@ -1748,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G37" s="6"/>
     </row>
@@ -1760,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>52</v>
